--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_pv.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_pv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A18009-45E5-0A4E-8B0E-3FDABB2D9030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F363EEC-73F7-ED46-B66E-B827E01B65D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="2520" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12320" yWindow="580" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$849</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="98">
   <si>
     <t>Name:</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>constant_fxe</t>
+  </si>
+  <si>
+    <t>capacity_to_activity</t>
+  </si>
+  <si>
+    <t>GW/TWh</t>
   </si>
 </sst>
 </file>
@@ -742,11 +748,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L429"/>
+  <dimension ref="A1:L430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -918,25 +924,18 @@
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>22</v>
+      <c r="C10" t="s">
+        <v>96</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="2"/>
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -946,16 +945,22 @@
         <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>8.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
       </c>
       <c r="I11" t="s">
         <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
       </c>
       <c r="K11" s="2"/>
     </row>
@@ -967,16 +972,13 @@
         <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>55</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I12" t="s">
         <v>45</v>
@@ -991,26 +993,21 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>73.244756330000001</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" t="s">
-        <v>92</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1020,25 +1017,25 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>64516.782039999998</v>
+        <v>73.244756330000001</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L14" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1049,18 +1046,26 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>64516.782039999998</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1070,52 +1075,44 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>10</v>
-      </c>
-      <c r="I16" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>52</v>
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
-        <v>17</v>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G17">
-        <v>1.3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
         <v>45</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1129,10 +1126,10 @@
         <v>39</v>
       </c>
       <c r="E18">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G18">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="s">
         <v>44</v>
@@ -1144,7 +1141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1158,10 +1155,10 @@
         <v>39</v>
       </c>
       <c r="E19">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G19">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="s">
         <v>44</v>
@@ -1173,7 +1170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1187,10 +1184,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H20" t="s">
         <v>44</v>
@@ -1202,7 +1199,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1216,10 +1213,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G21">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
         <v>44</v>
@@ -1231,7 +1228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1245,10 +1242,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G22">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="H22" t="s">
         <v>44</v>
@@ -1260,7 +1257,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1274,10 +1271,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="H23" t="s">
         <v>44</v>
@@ -1289,7 +1286,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1303,10 +1300,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G24">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H24" t="s">
         <v>44</v>
@@ -1318,7 +1315,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1332,10 +1329,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G25">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="s">
         <v>44</v>
@@ -1347,7 +1344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1361,10 +1358,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G26">
-        <v>8.8000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="H26" t="s">
         <v>44</v>
@@ -1376,7 +1373,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1390,10 +1387,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G27">
-        <v>10.199999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H27" t="s">
         <v>44</v>
@@ -1405,7 +1402,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1419,10 +1416,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G28">
-        <v>11.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H28" t="s">
         <v>44</v>
@@ -1434,7 +1431,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1448,10 +1445,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G29">
-        <v>13.6</v>
+        <v>11.9</v>
       </c>
       <c r="H29" t="s">
         <v>44</v>
@@ -1463,7 +1460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1477,10 +1474,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G30">
-        <v>16.3</v>
+        <v>13.6</v>
       </c>
       <c r="H30" t="s">
         <v>44</v>
@@ -1492,7 +1489,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1506,10 +1503,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G31">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="H31" t="s">
         <v>44</v>
@@ -1521,7 +1518,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1535,10 +1532,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G32">
-        <v>19.5</v>
+        <v>16.8</v>
       </c>
       <c r="H32" t="s">
         <v>44</v>
@@ -1564,10 +1561,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G33">
-        <v>22.4</v>
+        <v>19.5</v>
       </c>
       <c r="H33" t="s">
         <v>44</v>
@@ -1593,10 +1590,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G34">
-        <v>27.1</v>
+        <v>22.4</v>
       </c>
       <c r="H34" t="s">
         <v>44</v>
@@ -1622,10 +1619,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G35">
-        <v>35.200000000000003</v>
+        <v>27.1</v>
       </c>
       <c r="H35" t="s">
         <v>44</v>
@@ -1651,10 +1648,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G36">
-        <v>52.9</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H36" t="s">
         <v>44</v>
@@ -1680,10 +1677,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G37">
-        <v>92</v>
+        <v>52.9</v>
       </c>
       <c r="H37" t="s">
         <v>44</v>
@@ -1709,10 +1706,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G38">
-        <v>166.3</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
         <v>44</v>
@@ -1738,10 +1735,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>297.7</v>
+        <v>166.3</v>
       </c>
       <c r="H39" t="s">
         <v>44</v>
@@ -1767,10 +1764,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>498.8</v>
+        <v>297.7</v>
       </c>
       <c r="H40" t="s">
         <v>44</v>
@@ -1796,10 +1793,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>839.5</v>
+        <v>498.8</v>
       </c>
       <c r="H41" t="s">
         <v>44</v>
@@ -1825,10 +1822,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>1116.4000000000001</v>
+        <v>839.5</v>
       </c>
       <c r="H42" t="s">
         <v>44</v>
@@ -1854,10 +1851,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>1331.4</v>
+        <v>1116.4000000000001</v>
       </c>
       <c r="H43" t="s">
         <v>44</v>
@@ -1883,10 +1880,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G44">
-        <v>1680.8</v>
+        <v>1331.4</v>
       </c>
       <c r="H44" t="s">
         <v>44</v>
@@ -1912,10 +1909,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>1942.2</v>
+        <v>1680.8</v>
       </c>
       <c r="H45" t="s">
         <v>44</v>
@@ -1941,10 +1938,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>2174.3000000000002</v>
+        <v>1942.2</v>
       </c>
       <c r="H46" t="s">
         <v>44</v>
@@ -1964,19 +1961,19 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D47" t="s">
         <v>39</v>
       </c>
       <c r="E47">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>2.1</v>
+        <v>2174.3000000000002</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I47" t="s">
         <v>45</v>
@@ -1999,10 +1996,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G48">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H48" t="s">
         <v>47</v>
@@ -2028,10 +2025,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G49">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="s">
         <v>47</v>
@@ -2057,10 +2054,10 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G50">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H50" t="s">
         <v>47</v>
@@ -2086,10 +2083,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G51">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="H51" t="s">
         <v>47</v>
@@ -2115,10 +2112,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G52">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="H52" t="s">
         <v>47</v>
@@ -2144,10 +2141,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
@@ -2173,10 +2170,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G54">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="H54" t="s">
         <v>47</v>
@@ -2202,10 +2199,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G55">
-        <v>10.199999999999999</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H55" t="s">
         <v>47</v>
@@ -2231,10 +2228,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G56">
-        <v>11.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
@@ -2260,10 +2257,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G57">
-        <v>13.7</v>
+        <v>11.7</v>
       </c>
       <c r="H57" t="s">
         <v>47</v>
@@ -2289,10 +2286,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G58">
-        <v>16.100000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
@@ -2318,10 +2315,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G59">
-        <v>17.899999999999999</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H59" t="s">
         <v>47</v>
@@ -2347,10 +2344,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G60">
-        <v>19.5</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
@@ -2376,10 +2373,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G61">
-        <v>21.8</v>
+        <v>19.5</v>
       </c>
       <c r="H61" t="s">
         <v>47</v>
@@ -2405,10 +2402,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G62">
-        <v>25.7</v>
+        <v>21.8</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
@@ -2434,10 +2431,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G63">
-        <v>27.4</v>
+        <v>25.7</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
@@ -2463,10 +2460,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G64">
-        <v>34.5</v>
+        <v>27.4</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
@@ -2492,10 +2489,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G65">
-        <v>46.4</v>
+        <v>34.5</v>
       </c>
       <c r="H65" t="s">
         <v>47</v>
@@ -2521,10 +2518,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G66">
-        <v>76.5</v>
+        <v>46.4</v>
       </c>
       <c r="H66" t="s">
         <v>47</v>
@@ -2550,10 +2547,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G67">
-        <v>122.4</v>
+        <v>76.5</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
@@ -2579,10 +2576,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G68">
-        <v>219.9</v>
+        <v>122.4</v>
       </c>
       <c r="H68" t="s">
         <v>47</v>
@@ -2608,10 +2605,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G69">
-        <v>433.5</v>
+        <v>219.9</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
@@ -2637,10 +2634,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G70">
-        <v>752.4</v>
+        <v>433.5</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
@@ -2666,10 +2663,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G71">
-        <v>1056.9000000000001</v>
+        <v>752.4</v>
       </c>
       <c r="H71" t="s">
         <v>47</v>
@@ -2695,10 +2692,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G72">
-        <v>1390.1</v>
+        <v>1056.9000000000001</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
@@ -2724,10 +2721,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G73">
-        <v>1660.2</v>
+        <v>1390.1</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
@@ -2753,10 +2750,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G74">
-        <v>1902.3</v>
+        <v>1660.2</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
@@ -2782,10 +2779,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G75">
-        <v>2167.6</v>
+        <v>1902.3</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
@@ -2811,10 +2808,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G76">
-        <v>2492</v>
+        <v>2167.6</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
@@ -2834,16 +2831,16 @@
         <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>2492</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
@@ -2853,9 +2850,6 @@
       </c>
       <c r="J77" t="s">
         <v>46</v>
-      </c>
-      <c r="L77" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -2872,10 +2866,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G78">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
@@ -2904,7 +2898,7 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G79">
         <v>1.2</v>
@@ -2936,10 +2930,10 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G80">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
@@ -2968,7 +2962,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G81">
         <v>0.9</v>
@@ -3000,10 +2994,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G82">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="s">
         <v>47</v>
@@ -3032,10 +3026,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G83">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H83" t="s">
         <v>47</v>
@@ -3064,10 +3058,10 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G84">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="s">
         <v>47</v>
@@ -3096,10 +3090,10 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G85">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="s">
         <v>47</v>
@@ -3128,10 +3122,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G86">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
@@ -3160,10 +3154,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="s">
         <v>47</v>
@@ -3192,10 +3186,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G88">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
@@ -3224,10 +3218,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G89">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H89" t="s">
         <v>47</v>
@@ -3256,10 +3250,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G90">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="s">
         <v>47</v>
@@ -3288,10 +3282,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G91">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
@@ -3320,10 +3314,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G92">
-        <v>3.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
@@ -3352,10 +3346,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G93">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
@@ -3384,10 +3378,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G94">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
@@ -3416,10 +3410,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G95">
-        <v>11.9</v>
+        <v>7.1</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
@@ -3448,10 +3442,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G96">
-        <v>30.1</v>
+        <v>11.9</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
@@ -3480,10 +3474,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G97">
-        <v>45.9</v>
+        <v>30.1</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
@@ -3512,10 +3506,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G98">
-        <v>97.5</v>
+        <v>45.9</v>
       </c>
       <c r="H98" t="s">
         <v>47</v>
@@ -3544,10 +3538,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G99">
-        <v>213.6</v>
+        <v>97.5</v>
       </c>
       <c r="H99" t="s">
         <v>47</v>
@@ -3576,10 +3570,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G100">
-        <v>318.89999999999998</v>
+        <v>213.6</v>
       </c>
       <c r="H100" t="s">
         <v>47</v>
@@ -3608,10 +3602,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G101">
-        <v>304.5</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
@@ -3640,10 +3634,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G102">
-        <v>333.2</v>
+        <v>304.5</v>
       </c>
       <c r="H102" t="s">
         <v>47</v>
@@ -3672,10 +3666,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G103">
-        <v>270.10000000000002</v>
+        <v>333.2</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
@@ -3704,10 +3698,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G104">
-        <v>242.1</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="H104" t="s">
         <v>47</v>
@@ -3736,10 +3730,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G105">
-        <v>265.3</v>
+        <v>242.1</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
@@ -3768,10 +3762,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G106">
-        <v>324.39999999999998</v>
+        <v>265.3</v>
       </c>
       <c r="H106" t="s">
         <v>47</v>
@@ -3794,16 +3788,16 @@
         <v>43</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D107" t="s">
         <v>39</v>
       </c>
       <c r="E107">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>324.39999999999998</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
@@ -3832,7 +3826,7 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3864,7 +3858,7 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3896,7 +3890,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3928,7 +3922,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3960,7 +3954,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3992,7 +3986,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4024,7 +4018,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4056,7 +4050,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4088,7 +4082,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4120,7 +4114,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4152,7 +4146,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4184,7 +4178,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4216,7 +4210,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4248,7 +4242,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4280,7 +4274,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4312,7 +4306,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4344,7 +4338,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4376,7 +4370,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4408,7 +4402,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4440,7 +4434,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4472,7 +4466,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4504,7 +4498,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4536,7 +4530,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4568,7 +4562,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4600,7 +4594,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4632,7 +4626,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4664,7 +4658,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4696,7 +4690,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4728,7 +4722,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4754,16 +4748,28 @@
         <v>43</v>
       </c>
       <c r="C137" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D137" t="s">
         <v>39</v>
       </c>
       <c r="E137">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>47</v>
       </c>
       <c r="I137" t="s">
         <v>45</v>
+      </c>
+      <c r="J137" t="s">
+        <v>46</v>
+      </c>
+      <c r="L137" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -4780,7 +4786,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I138" t="s">
         <v>45</v>
@@ -4800,7 +4806,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I139" t="s">
         <v>45</v>
@@ -4820,7 +4826,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I140" t="s">
         <v>45</v>
@@ -4840,7 +4846,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I141" t="s">
         <v>45</v>
@@ -4860,7 +4866,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I142" t="s">
         <v>45</v>
@@ -4880,7 +4886,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
@@ -4900,7 +4906,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I144" t="s">
         <v>45</v>
@@ -4920,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -4940,7 +4946,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I146" t="s">
         <v>45</v>
@@ -4960,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I147" t="s">
         <v>45</v>
@@ -4980,7 +4986,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I148" t="s">
         <v>45</v>
@@ -5000,7 +5006,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -5020,7 +5026,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I150" t="s">
         <v>45</v>
@@ -5040,7 +5046,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
@@ -5060,7 +5066,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I152" t="s">
         <v>45</v>
@@ -5080,7 +5086,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I153" t="s">
         <v>45</v>
@@ -5100,7 +5106,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I154" t="s">
         <v>45</v>
@@ -5120,7 +5126,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
@@ -5140,7 +5146,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I156" t="s">
         <v>45</v>
@@ -5160,7 +5166,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I157" t="s">
         <v>45</v>
@@ -5180,7 +5186,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -5200,7 +5206,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
@@ -5220,7 +5226,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I160" t="s">
         <v>45</v>
@@ -5240,7 +5246,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I161" t="s">
         <v>45</v>
@@ -5260,7 +5266,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I162" t="s">
         <v>45</v>
@@ -5280,7 +5286,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
@@ -5300,7 +5306,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I164" t="s">
         <v>45</v>
@@ -5320,22 +5326,10 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>15</v>
-      </c>
-      <c r="H165" t="s">
-        <v>58</v>
+        <v>2017</v>
       </c>
       <c r="I165" t="s">
         <v>45</v>
-      </c>
-      <c r="J165" t="s">
-        <v>59</v>
-      </c>
-      <c r="L165" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5352,10 +5346,22 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G166">
+        <v>15</v>
+      </c>
+      <c r="H166" t="s">
+        <v>58</v>
       </c>
       <c r="I166" t="s">
         <v>45</v>
+      </c>
+      <c r="J166" t="s">
+        <v>59</v>
+      </c>
+      <c r="L166" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5366,25 +5372,16 @@
         <v>43</v>
       </c>
       <c r="C167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D167" t="s">
         <v>39</v>
       </c>
       <c r="E167">
-        <v>1990</v>
-      </c>
-      <c r="G167">
-        <v>7987.5518700000002</v>
-      </c>
-      <c r="H167" t="s">
-        <v>61</v>
+        <v>2019</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
-      </c>
-      <c r="J167" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -5401,13 +5398,13 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G168">
         <v>7987.5518700000002</v>
       </c>
       <c r="H168" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I168" t="s">
         <v>45</v>
@@ -5430,13 +5427,13 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G169">
         <v>7987.5518700000002</v>
       </c>
       <c r="H169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I169" t="s">
         <v>45</v>
@@ -5459,22 +5456,19 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G170">
         <v>7987.5518700000002</v>
       </c>
       <c r="H170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I170" t="s">
         <v>45</v>
       </c>
       <c r="J170" t="s">
-        <v>66</v>
-      </c>
-      <c r="L170" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -5491,13 +5485,13 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G171">
-        <v>7900.4149399999997</v>
+        <v>7987.5518700000002</v>
       </c>
       <c r="H171" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I171" t="s">
         <v>45</v>
@@ -5523,13 +5517,13 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G172">
-        <v>7697.0954400000001</v>
+        <v>7900.4149399999997</v>
       </c>
       <c r="H172" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I172" t="s">
         <v>45</v>
@@ -5555,13 +5549,13 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G173">
-        <v>7668.04979</v>
+        <v>7697.0954400000001</v>
       </c>
       <c r="H173" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I173" t="s">
         <v>45</v>
@@ -5587,13 +5581,13 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G174">
-        <v>7464.7302900000004</v>
+        <v>7668.04979</v>
       </c>
       <c r="H174" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I174" t="s">
         <v>45</v>
@@ -5619,13 +5613,13 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G175">
-        <v>7522.8215799999998</v>
+        <v>7464.7302900000004</v>
       </c>
       <c r="H175" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I175" t="s">
         <v>45</v>
@@ -5651,13 +5645,13 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G176">
-        <v>7232.3651499999996</v>
+        <v>7522.8215799999998</v>
       </c>
       <c r="H176" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
@@ -5683,13 +5677,13 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G177">
-        <v>7580.9128600000004</v>
+        <v>7232.3651499999996</v>
       </c>
       <c r="H177" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I177" t="s">
         <v>45</v>
@@ -5715,13 +5709,13 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G178">
-        <v>6100</v>
+        <v>7580.9128600000004</v>
       </c>
       <c r="H178" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
@@ -5730,7 +5724,7 @@
         <v>66</v>
       </c>
       <c r="L178" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -5747,13 +5741,13 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G179">
         <v>6100</v>
       </c>
       <c r="H179" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I179" t="s">
         <v>45</v>
@@ -5779,13 +5773,13 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G180">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="H180" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I180" t="s">
         <v>45</v>
@@ -5811,13 +5805,13 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G181">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="H181" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5843,13 +5837,13 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G182">
-        <v>6500</v>
+        <v>6000</v>
       </c>
       <c r="H182" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I182" t="s">
         <v>45</v>
@@ -5875,13 +5869,13 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G183">
-        <v>7200</v>
+        <v>6500</v>
       </c>
       <c r="H183" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
@@ -5907,13 +5901,13 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G184">
-        <v>6950</v>
+        <v>7200</v>
       </c>
       <c r="H184" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I184" t="s">
         <v>45</v>
@@ -5939,13 +5933,13 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G185">
-        <v>7750</v>
+        <v>6950</v>
       </c>
       <c r="H185" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I185" t="s">
         <v>45</v>
@@ -5971,13 +5965,13 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G186">
-        <v>5900</v>
+        <v>7750</v>
       </c>
       <c r="H186" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I186" t="s">
         <v>45</v>
@@ -6003,22 +5997,22 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G187">
-        <v>5999.0155370000002</v>
+        <v>5900</v>
       </c>
       <c r="H187" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I187" t="s">
         <v>45</v>
       </c>
       <c r="J187" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L187" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -6035,10 +6029,10 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G188">
-        <v>4790.9008819999999</v>
+        <v>5999.0155370000002</v>
       </c>
       <c r="H188" t="s">
         <v>85</v>
@@ -6067,10 +6061,10 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G189">
-        <v>3791.1229790000002</v>
+        <v>4790.9008819999999</v>
       </c>
       <c r="H189" t="s">
         <v>85</v>
@@ -6099,10 +6093,10 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G190">
-        <v>3249.7782499999998</v>
+        <v>3791.1229790000002</v>
       </c>
       <c r="H190" t="s">
         <v>85</v>
@@ -6131,10 +6125,10 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G191">
-        <v>2590.8153069999998</v>
+        <v>3249.7782499999998</v>
       </c>
       <c r="H191" t="s">
         <v>85</v>
@@ -6163,10 +6157,10 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G192">
-        <v>2072.0770630000002</v>
+        <v>2590.8153069999998</v>
       </c>
       <c r="H192" t="s">
         <v>85</v>
@@ -6195,10 +6189,10 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G193">
-        <v>1881.1430250000001</v>
+        <v>2072.0770630000002</v>
       </c>
       <c r="H193" t="s">
         <v>85</v>
@@ -6227,10 +6221,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G194">
-        <v>1803.9349159999999</v>
+        <v>1881.1430250000001</v>
       </c>
       <c r="H194" t="s">
         <v>85</v>
@@ -6259,10 +6253,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G195">
-        <v>1802.2196670000001</v>
+        <v>1803.9349159999999</v>
       </c>
       <c r="H195" t="s">
         <v>85</v>
@@ -6291,10 +6285,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G196">
-        <v>1455.218396</v>
+        <v>1802.2196670000001</v>
       </c>
       <c r="H196" t="s">
         <v>85</v>
@@ -6317,16 +6311,28 @@
         <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" t="s">
         <v>39</v>
       </c>
       <c r="E197">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G197">
+        <v>1455.218396</v>
+      </c>
+      <c r="H197" t="s">
+        <v>85</v>
       </c>
       <c r="I197" t="s">
         <v>45</v>
+      </c>
+      <c r="J197" t="s">
+        <v>86</v>
+      </c>
+      <c r="L197" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -6343,7 +6349,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I198" t="s">
         <v>45</v>
@@ -6363,7 +6369,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
@@ -6383,7 +6389,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
@@ -6403,7 +6409,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I201" t="s">
         <v>45</v>
@@ -6423,7 +6429,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -6443,7 +6449,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
@@ -6463,7 +6469,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I204" t="s">
         <v>45</v>
@@ -6483,7 +6489,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I205" t="s">
         <v>45</v>
@@ -6503,7 +6509,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I206" t="s">
         <v>45</v>
@@ -6523,7 +6529,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I207" t="s">
         <v>45</v>
@@ -6543,7 +6549,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I208" t="s">
         <v>45</v>
@@ -6563,7 +6569,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I209" t="s">
         <v>45</v>
@@ -6583,7 +6589,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I210" t="s">
         <v>45</v>
@@ -6603,7 +6609,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I211" t="s">
         <v>45</v>
@@ -6623,7 +6629,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
@@ -6643,7 +6649,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I213" t="s">
         <v>45</v>
@@ -6663,7 +6669,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I214" t="s">
         <v>45</v>
@@ -6683,7 +6689,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
@@ -6703,7 +6709,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I216" t="s">
         <v>45</v>
@@ -6723,7 +6729,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I217" t="s">
         <v>45</v>
@@ -6743,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I218" t="s">
         <v>45</v>
@@ -6763,7 +6769,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
@@ -6783,7 +6789,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
@@ -6803,7 +6809,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="I221" t="s">
         <v>45</v>
@@ -6823,7 +6829,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
@@ -6843,7 +6849,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
@@ -6863,7 +6869,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
@@ -6883,19 +6889,10 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2018</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-      <c r="H225" t="s">
-        <v>88</v>
+        <v>2017</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
-      </c>
-      <c r="J225" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6912,10 +6909,19 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226" t="s">
+        <v>88</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
+      </c>
+      <c r="J226" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6926,28 +6932,16 @@
         <v>43</v>
       </c>
       <c r="C227" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
         <v>39</v>
       </c>
       <c r="E227">
-        <v>1990</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-      <c r="H227" t="s">
-        <v>47</v>
+        <v>2019</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
-      </c>
-      <c r="J227" t="s">
-        <v>46</v>
-      </c>
-      <c r="L227" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -6964,7 +6958,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G228">
         <v>0</v>
@@ -6996,7 +6990,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G229">
         <v>0</v>
@@ -7028,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -7060,7 +7054,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -7092,7 +7086,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -7124,7 +7118,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -7156,7 +7150,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -7188,7 +7182,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7220,7 +7214,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7252,7 +7246,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7284,7 +7278,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7316,7 +7310,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7348,7 +7342,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7380,7 +7374,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7412,7 +7406,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7444,7 +7438,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7476,7 +7470,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7508,7 +7502,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7540,7 +7534,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7572,7 +7566,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7604,7 +7598,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7636,7 +7630,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7668,7 +7662,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7700,7 +7694,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7732,7 +7726,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7764,7 +7758,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7796,7 +7790,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7828,7 +7822,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7860,7 +7854,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7878,7 +7872,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>16</v>
       </c>
@@ -7886,22 +7880,31 @@
         <v>43</v>
       </c>
       <c r="C257" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D257" t="s">
         <v>39</v>
       </c>
       <c r="E257">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H257" t="s">
+        <v>47</v>
       </c>
       <c r="I257" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257" t="s">
+        <v>46</v>
+      </c>
+      <c r="L257" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>16</v>
       </c>
@@ -7915,16 +7918,16 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G258">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>16</v>
       </c>
@@ -7938,7 +7941,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G259">
         <v>0.2</v>
@@ -7947,7 +7950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>16</v>
       </c>
@@ -7961,7 +7964,7 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G260">
         <v>0.2</v>
@@ -7970,7 +7973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>16</v>
       </c>
@@ -7984,7 +7987,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G261">
         <v>0.2</v>
@@ -7993,7 +7996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>16</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G262">
         <v>0.2</v>
@@ -8016,7 +8019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>16</v>
       </c>
@@ -8030,7 +8033,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G263">
         <v>0.2</v>
@@ -8039,7 +8042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>16</v>
       </c>
@@ -8053,7 +8056,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G264">
         <v>0.2</v>
@@ -8062,7 +8065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>16</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G265">
         <v>0.2</v>
@@ -8085,7 +8088,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>16</v>
       </c>
@@ -8099,7 +8102,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G266">
         <v>0.2</v>
@@ -8108,7 +8111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -8122,7 +8125,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G267">
         <v>0.2</v>
@@ -8131,7 +8134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>16</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G268">
         <v>0.2</v>
@@ -8154,7 +8157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>16</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -8177,7 +8180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>16</v>
       </c>
@@ -8191,7 +8194,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G270">
         <v>0.2</v>
@@ -8200,7 +8203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>16</v>
       </c>
@@ -8214,7 +8217,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G271">
         <v>0.2</v>
@@ -8223,7 +8226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>16</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G272">
         <v>0.2</v>
@@ -8260,7 +8263,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G273">
         <v>0.2</v>
@@ -8283,7 +8286,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G274">
         <v>0.2</v>
@@ -8306,7 +8309,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G275">
         <v>0.2</v>
@@ -8329,7 +8332,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G276">
         <v>0.2</v>
@@ -8352,7 +8355,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G277">
         <v>0.2</v>
@@ -8375,7 +8378,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G278">
         <v>0.2</v>
@@ -8398,7 +8401,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G279">
         <v>0.2</v>
@@ -8421,7 +8424,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G280">
         <v>0.2</v>
@@ -8444,7 +8447,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G281">
         <v>0.2</v>
@@ -8467,7 +8470,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G282">
         <v>0.2</v>
@@ -8490,7 +8493,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G283">
         <v>0.2</v>
@@ -8513,7 +8516,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G284">
         <v>0.2</v>
@@ -8536,7 +8539,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G285">
         <v>0.2</v>
@@ -8559,7 +8562,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G286">
         <v>0.2</v>
@@ -8576,16 +8579,16 @@
         <v>43</v>
       </c>
       <c r="C287" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D287" t="s">
         <v>39</v>
       </c>
       <c r="E287">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G287">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I287" t="s">
         <v>45</v>
@@ -8605,7 +8608,7 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G288">
         <v>0</v>
@@ -8628,7 +8631,7 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G289">
         <v>0</v>
@@ -8651,7 +8654,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -8674,7 +8677,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -8697,7 +8700,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -8720,7 +8723,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -8743,7 +8746,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -8766,7 +8769,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -8789,7 +8792,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -8812,7 +8815,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -8835,7 +8838,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -8858,7 +8861,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -8881,7 +8884,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -8904,7 +8907,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -8927,7 +8930,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -8950,7 +8953,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -8973,7 +8976,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -8996,7 +8999,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -9019,7 +9022,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -9042,7 +9045,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -9065,7 +9068,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -9088,7 +9091,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -9111,7 +9114,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -9134,7 +9137,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -9157,7 +9160,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -9180,7 +9183,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -9203,7 +9206,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -9226,7 +9229,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -9249,24 +9252,47 @@
         <v>39</v>
       </c>
       <c r="E316">
+        <v>2018</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="I316" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>16</v>
+      </c>
+      <c r="B317" t="s">
+        <v>43</v>
+      </c>
+      <c r="C317" t="s">
+        <v>29</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317">
         <v>2019</v>
       </c>
-      <c r="G316">
-        <v>0</v>
-      </c>
-      <c r="I316" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="429" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K429" s="2"/>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="I317" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K430" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L849" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K13" r:id="rId1" xr:uid="{C47DFCEC-44A8-DC48-A22D-7DA72BEA8100}"/>
-    <hyperlink ref="K14" r:id="rId2" xr:uid="{A69A31E3-C9D8-F248-9A39-97FDA42427E2}"/>
+    <hyperlink ref="K14" r:id="rId1" xr:uid="{C47DFCEC-44A8-DC48-A22D-7DA72BEA8100}"/>
+    <hyperlink ref="K15" r:id="rId2" xr:uid="{A69A31E3-C9D8-F248-9A39-97FDA42427E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_pv.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_pv.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F363EEC-73F7-ED46-B66E-B827E01B65D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4BEC7C-3E7F-1041-A0AB-8D54789267C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="580" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12320" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="101">
   <si>
     <t>Name:</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>GW/TWh</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>configuration_fxe</t>
   </si>
 </sst>
 </file>
@@ -748,11 +757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L430"/>
+  <dimension ref="A1:L432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -854,10 +863,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -875,10 +884,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -896,26 +905,18 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>95</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>53</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -925,17 +926,18 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>95</v>
+      </c>
+      <c r="F10" t="s">
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>1E-3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>97</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -944,17 +946,17 @@
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I11" t="s">
         <v>45</v>
@@ -962,7 +964,9 @@
       <c r="J11" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -971,19 +975,18 @@
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
+      <c r="C12" t="s">
+        <v>96</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="I12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="2"/>
+        <v>1E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -993,19 +996,22 @@
         <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" t="s">
         <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>52</v>
       </c>
       <c r="K13" s="2"/>
     </row>
@@ -1017,26 +1023,18 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>73.244756330000001</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" t="s">
-        <v>90</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L14" t="s">
-        <v>92</v>
-      </c>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1046,26 +1044,21 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>64516.782039999998</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L15" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1075,20 +1068,28 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>73.244756330000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>56</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1096,81 +1097,73 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
       <c r="G17">
+        <v>64516.782039999998</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>52</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="I17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
         <v>52</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <v>1990</v>
-      </c>
-      <c r="G18">
-        <v>1.3</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19">
-        <v>1991</v>
-      </c>
-      <c r="G19">
-        <v>2.1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1184,10 +1177,10 @@
         <v>39</v>
       </c>
       <c r="E20">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G20">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="s">
         <v>44</v>
@@ -1199,7 +1192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1213,10 +1206,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H21" t="s">
         <v>44</v>
@@ -1228,7 +1221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1242,10 +1235,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G22">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="s">
         <v>44</v>
@@ -1257,7 +1250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1271,10 +1264,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G23">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
         <v>44</v>
@@ -1286,7 +1279,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1300,10 +1293,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G24">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="H24" t="s">
         <v>44</v>
@@ -1315,7 +1308,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1329,10 +1322,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G25">
-        <v>6.7</v>
+        <v>5.4</v>
       </c>
       <c r="H25" t="s">
         <v>44</v>
@@ -1344,7 +1337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1358,10 +1351,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G26">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
         <v>44</v>
@@ -1373,7 +1366,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1387,10 +1380,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G27">
-        <v>8.8000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="H27" t="s">
         <v>44</v>
@@ -1402,7 +1395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1416,10 +1409,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G28">
-        <v>10.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H28" t="s">
         <v>44</v>
@@ -1431,7 +1424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1445,10 +1438,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G29">
-        <v>11.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H29" t="s">
         <v>44</v>
@@ -1460,7 +1453,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1474,10 +1467,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G30">
-        <v>13.6</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H30" t="s">
         <v>44</v>
@@ -1489,7 +1482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1503,10 +1496,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G31">
-        <v>16.3</v>
+        <v>11.9</v>
       </c>
       <c r="H31" t="s">
         <v>44</v>
@@ -1518,7 +1511,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1532,10 +1525,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G32">
-        <v>16.8</v>
+        <v>13.6</v>
       </c>
       <c r="H32" t="s">
         <v>44</v>
@@ -1561,10 +1554,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G33">
-        <v>19.5</v>
+        <v>16.3</v>
       </c>
       <c r="H33" t="s">
         <v>44</v>
@@ -1590,10 +1583,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G34">
-        <v>22.4</v>
+        <v>16.8</v>
       </c>
       <c r="H34" t="s">
         <v>44</v>
@@ -1619,10 +1612,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G35">
-        <v>27.1</v>
+        <v>19.5</v>
       </c>
       <c r="H35" t="s">
         <v>44</v>
@@ -1648,10 +1641,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G36">
-        <v>35.200000000000003</v>
+        <v>22.4</v>
       </c>
       <c r="H36" t="s">
         <v>44</v>
@@ -1677,10 +1670,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G37">
-        <v>52.9</v>
+        <v>27.1</v>
       </c>
       <c r="H37" t="s">
         <v>44</v>
@@ -1706,10 +1699,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G38">
-        <v>92</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="H38" t="s">
         <v>44</v>
@@ -1735,10 +1728,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G39">
-        <v>166.3</v>
+        <v>52.9</v>
       </c>
       <c r="H39" t="s">
         <v>44</v>
@@ -1764,10 +1757,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G40">
-        <v>297.7</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s">
         <v>44</v>
@@ -1793,10 +1786,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G41">
-        <v>498.8</v>
+        <v>166.3</v>
       </c>
       <c r="H41" t="s">
         <v>44</v>
@@ -1822,10 +1815,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G42">
-        <v>839.5</v>
+        <v>297.7</v>
       </c>
       <c r="H42" t="s">
         <v>44</v>
@@ -1851,10 +1844,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G43">
-        <v>1116.4000000000001</v>
+        <v>498.8</v>
       </c>
       <c r="H43" t="s">
         <v>44</v>
@@ -1880,10 +1873,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G44">
-        <v>1331.4</v>
+        <v>839.5</v>
       </c>
       <c r="H44" t="s">
         <v>44</v>
@@ -1909,10 +1902,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G45">
-        <v>1680.8</v>
+        <v>1116.4000000000001</v>
       </c>
       <c r="H45" t="s">
         <v>44</v>
@@ -1938,10 +1931,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G46">
-        <v>1942.2</v>
+        <v>1331.4</v>
       </c>
       <c r="H46" t="s">
         <v>44</v>
@@ -1967,10 +1960,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>2174.3000000000002</v>
+        <v>1680.8</v>
       </c>
       <c r="H47" t="s">
         <v>44</v>
@@ -1990,19 +1983,19 @@
         <v>43</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
         <v>39</v>
       </c>
       <c r="E48">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G48">
-        <v>2.1</v>
+        <v>1942.2</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I48" t="s">
         <v>45</v>
@@ -2019,19 +2012,19 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
         <v>39</v>
       </c>
       <c r="E49">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G49">
-        <v>3.3</v>
+        <v>2174.3000000000002</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
         <v>45</v>
@@ -2054,10 +2047,10 @@
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G50">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="s">
         <v>47</v>
@@ -2083,10 +2076,10 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G51">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="H51" t="s">
         <v>47</v>
@@ -2112,10 +2105,10 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G52">
-        <v>6.3</v>
+        <v>4.5</v>
       </c>
       <c r="H52" t="s">
         <v>47</v>
@@ -2141,10 +2134,10 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G53">
-        <v>7.1</v>
+        <v>5.4</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
@@ -2170,10 +2163,10 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G54">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="H54" t="s">
         <v>47</v>
@@ -2199,10 +2192,10 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G55">
-        <v>8.8000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="H55" t="s">
         <v>47</v>
@@ -2228,10 +2221,10 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G56">
-        <v>10.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
@@ -2257,10 +2250,10 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G57">
-        <v>11.7</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H57" t="s">
         <v>47</v>
@@ -2286,10 +2279,10 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G58">
-        <v>13.7</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H58" t="s">
         <v>47</v>
@@ -2315,10 +2308,10 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G59">
-        <v>16.100000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="H59" t="s">
         <v>47</v>
@@ -2344,10 +2337,10 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G60">
-        <v>17.899999999999999</v>
+        <v>13.7</v>
       </c>
       <c r="H60" t="s">
         <v>47</v>
@@ -2373,10 +2366,10 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G61">
-        <v>19.5</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="H61" t="s">
         <v>47</v>
@@ -2402,10 +2395,10 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G62">
-        <v>21.8</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="H62" t="s">
         <v>47</v>
@@ -2431,10 +2424,10 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G63">
-        <v>25.7</v>
+        <v>19.5</v>
       </c>
       <c r="H63" t="s">
         <v>47</v>
@@ -2460,10 +2453,10 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G64">
-        <v>27.4</v>
+        <v>21.8</v>
       </c>
       <c r="H64" t="s">
         <v>47</v>
@@ -2489,10 +2482,10 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G65">
-        <v>34.5</v>
+        <v>25.7</v>
       </c>
       <c r="H65" t="s">
         <v>47</v>
@@ -2518,10 +2511,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G66">
-        <v>46.4</v>
+        <v>27.4</v>
       </c>
       <c r="H66" t="s">
         <v>47</v>
@@ -2547,10 +2540,10 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G67">
-        <v>76.5</v>
+        <v>34.5</v>
       </c>
       <c r="H67" t="s">
         <v>47</v>
@@ -2576,10 +2569,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G68">
-        <v>122.4</v>
+        <v>46.4</v>
       </c>
       <c r="H68" t="s">
         <v>47</v>
@@ -2605,10 +2598,10 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G69">
-        <v>219.9</v>
+        <v>76.5</v>
       </c>
       <c r="H69" t="s">
         <v>47</v>
@@ -2634,10 +2627,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G70">
-        <v>433.5</v>
+        <v>122.4</v>
       </c>
       <c r="H70" t="s">
         <v>47</v>
@@ -2663,10 +2656,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G71">
-        <v>752.4</v>
+        <v>219.9</v>
       </c>
       <c r="H71" t="s">
         <v>47</v>
@@ -2692,10 +2685,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G72">
-        <v>1056.9000000000001</v>
+        <v>433.5</v>
       </c>
       <c r="H72" t="s">
         <v>47</v>
@@ -2721,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G73">
-        <v>1390.1</v>
+        <v>752.4</v>
       </c>
       <c r="H73" t="s">
         <v>47</v>
@@ -2750,10 +2743,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G74">
-        <v>1660.2</v>
+        <v>1056.9000000000001</v>
       </c>
       <c r="H74" t="s">
         <v>47</v>
@@ -2779,10 +2772,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G75">
-        <v>1902.3</v>
+        <v>1390.1</v>
       </c>
       <c r="H75" t="s">
         <v>47</v>
@@ -2808,10 +2801,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G76">
-        <v>2167.6</v>
+        <v>1660.2</v>
       </c>
       <c r="H76" t="s">
         <v>47</v>
@@ -2837,10 +2830,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G77">
-        <v>2492</v>
+        <v>1902.3</v>
       </c>
       <c r="H77" t="s">
         <v>47</v>
@@ -2860,16 +2853,16 @@
         <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" t="s">
         <v>39</v>
       </c>
       <c r="E78">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>2167.6</v>
       </c>
       <c r="H78" t="s">
         <v>47</v>
@@ -2879,9 +2872,6 @@
       </c>
       <c r="J78" t="s">
         <v>46</v>
-      </c>
-      <c r="L78" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -2892,16 +2882,16 @@
         <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D79" t="s">
         <v>39</v>
       </c>
       <c r="E79">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G79">
-        <v>1.2</v>
+        <v>2492</v>
       </c>
       <c r="H79" t="s">
         <v>47</v>
@@ -2911,9 +2901,6 @@
       </c>
       <c r="J79" t="s">
         <v>46</v>
-      </c>
-      <c r="L79" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -2930,10 +2917,10 @@
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G80">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H80" t="s">
         <v>47</v>
@@ -2962,10 +2949,10 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G81">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="s">
         <v>47</v>
@@ -2994,10 +2981,10 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G82">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="s">
         <v>47</v>
@@ -3026,10 +3013,10 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G83">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="s">
         <v>47</v>
@@ -3058,7 +3045,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G84">
         <v>0.9</v>
@@ -3090,7 +3077,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G85">
         <v>0.8</v>
@@ -3122,10 +3109,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G86">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="s">
         <v>47</v>
@@ -3154,10 +3141,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G87">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="s">
         <v>47</v>
@@ -3186,10 +3173,10 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="s">
         <v>47</v>
@@ -3218,10 +3205,10 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G89">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="s">
         <v>47</v>
@@ -3250,10 +3237,10 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
         <v>47</v>
@@ -3282,10 +3269,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G91">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="s">
         <v>47</v>
@@ -3314,10 +3301,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G92">
-        <v>2.2999999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="s">
         <v>47</v>
@@ -3346,10 +3333,10 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G93">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="s">
         <v>47</v>
@@ -3378,10 +3365,10 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G94">
-        <v>1.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H94" t="s">
         <v>47</v>
@@ -3410,10 +3397,10 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G95">
-        <v>7.1</v>
+        <v>3.9</v>
       </c>
       <c r="H95" t="s">
         <v>47</v>
@@ -3442,10 +3429,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G96">
-        <v>11.9</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="s">
         <v>47</v>
@@ -3474,10 +3461,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G97">
-        <v>30.1</v>
+        <v>7.1</v>
       </c>
       <c r="H97" t="s">
         <v>47</v>
@@ -3506,10 +3493,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G98">
-        <v>45.9</v>
+        <v>11.9</v>
       </c>
       <c r="H98" t="s">
         <v>47</v>
@@ -3538,10 +3525,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G99">
-        <v>97.5</v>
+        <v>30.1</v>
       </c>
       <c r="H99" t="s">
         <v>47</v>
@@ -3570,10 +3557,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G100">
-        <v>213.6</v>
+        <v>45.9</v>
       </c>
       <c r="H100" t="s">
         <v>47</v>
@@ -3602,10 +3589,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G101">
-        <v>318.89999999999998</v>
+        <v>97.5</v>
       </c>
       <c r="H101" t="s">
         <v>47</v>
@@ -3634,10 +3621,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G102">
-        <v>304.5</v>
+        <v>213.6</v>
       </c>
       <c r="H102" t="s">
         <v>47</v>
@@ -3666,10 +3653,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G103">
-        <v>333.2</v>
+        <v>318.89999999999998</v>
       </c>
       <c r="H103" t="s">
         <v>47</v>
@@ -3698,10 +3685,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G104">
-        <v>270.10000000000002</v>
+        <v>304.5</v>
       </c>
       <c r="H104" t="s">
         <v>47</v>
@@ -3730,10 +3717,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G105">
-        <v>242.1</v>
+        <v>333.2</v>
       </c>
       <c r="H105" t="s">
         <v>47</v>
@@ -3762,10 +3749,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G106">
-        <v>265.3</v>
+        <v>270.10000000000002</v>
       </c>
       <c r="H106" t="s">
         <v>47</v>
@@ -3794,10 +3781,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G107">
-        <v>324.39999999999998</v>
+        <v>242.1</v>
       </c>
       <c r="H107" t="s">
         <v>47</v>
@@ -3820,16 +3807,16 @@
         <v>43</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" t="s">
         <v>39</v>
       </c>
       <c r="E108">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>265.3</v>
       </c>
       <c r="H108" t="s">
         <v>47</v>
@@ -3852,16 +3839,16 @@
         <v>43</v>
       </c>
       <c r="C109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D109" t="s">
         <v>39</v>
       </c>
       <c r="E109">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>324.39999999999998</v>
       </c>
       <c r="H109" t="s">
         <v>47</v>
@@ -3890,7 +3877,7 @@
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3922,7 +3909,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3954,7 +3941,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3986,7 +3973,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -4018,7 +4005,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -4050,7 +4037,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -4082,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -4114,7 +4101,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -4146,7 +4133,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4178,7 +4165,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4210,7 +4197,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4242,7 +4229,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4274,7 +4261,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4306,7 +4293,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4338,7 +4325,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4370,7 +4357,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4402,7 +4389,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4434,7 +4421,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4466,7 +4453,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4498,7 +4485,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4530,7 +4517,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4562,7 +4549,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4594,7 +4581,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4626,7 +4613,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4658,7 +4645,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4690,7 +4677,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4722,7 +4709,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4754,7 +4741,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4780,16 +4767,28 @@
         <v>43</v>
       </c>
       <c r="C138" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D138" t="s">
         <v>39</v>
       </c>
       <c r="E138">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>47</v>
       </c>
       <c r="I138" t="s">
         <v>45</v>
+      </c>
+      <c r="J138" t="s">
+        <v>46</v>
+      </c>
+      <c r="L138" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -4800,16 +4799,28 @@
         <v>43</v>
       </c>
       <c r="C139" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D139" t="s">
         <v>39</v>
       </c>
       <c r="E139">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>47</v>
       </c>
       <c r="I139" t="s">
         <v>45</v>
+      </c>
+      <c r="J139" t="s">
+        <v>46</v>
+      </c>
+      <c r="L139" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -4826,7 +4837,7 @@
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I140" t="s">
         <v>45</v>
@@ -4846,7 +4857,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I141" t="s">
         <v>45</v>
@@ -4866,7 +4877,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I142" t="s">
         <v>45</v>
@@ -4886,7 +4897,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I143" t="s">
         <v>45</v>
@@ -4906,7 +4917,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I144" t="s">
         <v>45</v>
@@ -4926,7 +4937,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I145" t="s">
         <v>45</v>
@@ -4946,7 +4957,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I146" t="s">
         <v>45</v>
@@ -4966,7 +4977,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I147" t="s">
         <v>45</v>
@@ -4986,7 +4997,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I148" t="s">
         <v>45</v>
@@ -5006,7 +5017,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I149" t="s">
         <v>45</v>
@@ -5026,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I150" t="s">
         <v>45</v>
@@ -5046,7 +5057,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I151" t="s">
         <v>45</v>
@@ -5066,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I152" t="s">
         <v>45</v>
@@ -5086,7 +5097,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I153" t="s">
         <v>45</v>
@@ -5106,7 +5117,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I154" t="s">
         <v>45</v>
@@ -5126,7 +5137,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I155" t="s">
         <v>45</v>
@@ -5146,7 +5157,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I156" t="s">
         <v>45</v>
@@ -5166,7 +5177,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I157" t="s">
         <v>45</v>
@@ -5186,7 +5197,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I158" t="s">
         <v>45</v>
@@ -5206,7 +5217,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I159" t="s">
         <v>45</v>
@@ -5226,7 +5237,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I160" t="s">
         <v>45</v>
@@ -5246,7 +5257,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I161" t="s">
         <v>45</v>
@@ -5266,7 +5277,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I162" t="s">
         <v>45</v>
@@ -5286,7 +5297,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I163" t="s">
         <v>45</v>
@@ -5306,7 +5317,7 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I164" t="s">
         <v>45</v>
@@ -5326,7 +5337,7 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I165" t="s">
         <v>45</v>
@@ -5346,22 +5357,10 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2018</v>
-      </c>
-      <c r="G166">
-        <v>15</v>
-      </c>
-      <c r="H166" t="s">
-        <v>58</v>
+        <v>2016</v>
       </c>
       <c r="I166" t="s">
         <v>45</v>
-      </c>
-      <c r="J166" t="s">
-        <v>59</v>
-      </c>
-      <c r="L166" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -5378,7 +5377,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I167" t="s">
         <v>45</v>
@@ -5392,25 +5391,28 @@
         <v>43</v>
       </c>
       <c r="C168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D168" t="s">
         <v>39</v>
       </c>
       <c r="E168">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G168">
-        <v>7987.5518700000002</v>
+        <v>15</v>
       </c>
       <c r="H168" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I168" t="s">
         <v>45</v>
       </c>
       <c r="J168" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="L168" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -5421,25 +5423,16 @@
         <v>43</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D169" t="s">
         <v>39</v>
       </c>
       <c r="E169">
-        <v>1991</v>
-      </c>
-      <c r="G169">
-        <v>7987.5518700000002</v>
-      </c>
-      <c r="H169" t="s">
-        <v>63</v>
+        <v>2019</v>
       </c>
       <c r="I169" t="s">
         <v>45</v>
-      </c>
-      <c r="J169" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -5456,13 +5449,13 @@
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G170">
         <v>7987.5518700000002</v>
       </c>
       <c r="H170" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I170" t="s">
         <v>45</v>
@@ -5485,22 +5478,19 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G171">
         <v>7987.5518700000002</v>
       </c>
       <c r="H171" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I171" t="s">
         <v>45</v>
       </c>
       <c r="J171" t="s">
-        <v>66</v>
-      </c>
-      <c r="L171" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -5517,22 +5507,19 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G172">
-        <v>7900.4149399999997</v>
+        <v>7987.5518700000002</v>
       </c>
       <c r="H172" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I172" t="s">
         <v>45</v>
       </c>
       <c r="J172" t="s">
-        <v>66</v>
-      </c>
-      <c r="L172" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -5549,13 +5536,13 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G173">
-        <v>7697.0954400000001</v>
+        <v>7987.5518700000002</v>
       </c>
       <c r="H173" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I173" t="s">
         <v>45</v>
@@ -5581,13 +5568,13 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G174">
-        <v>7668.04979</v>
+        <v>7900.4149399999997</v>
       </c>
       <c r="H174" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I174" t="s">
         <v>45</v>
@@ -5613,13 +5600,13 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G175">
-        <v>7464.7302900000004</v>
+        <v>7697.0954400000001</v>
       </c>
       <c r="H175" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I175" t="s">
         <v>45</v>
@@ -5645,13 +5632,13 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G176">
-        <v>7522.8215799999998</v>
+        <v>7668.04979</v>
       </c>
       <c r="H176" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I176" t="s">
         <v>45</v>
@@ -5677,13 +5664,13 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G177">
-        <v>7232.3651499999996</v>
+        <v>7464.7302900000004</v>
       </c>
       <c r="H177" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I177" t="s">
         <v>45</v>
@@ -5709,13 +5696,13 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G178">
-        <v>7580.9128600000004</v>
+        <v>7522.8215799999998</v>
       </c>
       <c r="H178" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I178" t="s">
         <v>45</v>
@@ -5741,13 +5728,13 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G179">
-        <v>6100</v>
+        <v>7232.3651499999996</v>
       </c>
       <c r="H179" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I179" t="s">
         <v>45</v>
@@ -5756,7 +5743,7 @@
         <v>66</v>
       </c>
       <c r="L179" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -5773,13 +5760,13 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G180">
-        <v>6100</v>
+        <v>7580.9128600000004</v>
       </c>
       <c r="H180" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I180" t="s">
         <v>45</v>
@@ -5788,7 +5775,7 @@
         <v>66</v>
       </c>
       <c r="L180" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -5805,13 +5792,13 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G181">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="H181" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I181" t="s">
         <v>45</v>
@@ -5837,13 +5824,13 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G182">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H182" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I182" t="s">
         <v>45</v>
@@ -5869,13 +5856,13 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G183">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="H183" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I183" t="s">
         <v>45</v>
@@ -5901,13 +5888,13 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G184">
-        <v>7200</v>
+        <v>6000</v>
       </c>
       <c r="H184" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I184" t="s">
         <v>45</v>
@@ -5933,13 +5920,13 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G185">
-        <v>6950</v>
+        <v>6500</v>
       </c>
       <c r="H185" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I185" t="s">
         <v>45</v>
@@ -5965,13 +5952,13 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G186">
-        <v>7750</v>
+        <v>7200</v>
       </c>
       <c r="H186" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I186" t="s">
         <v>45</v>
@@ -5997,13 +5984,13 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G187">
-        <v>5900</v>
+        <v>6950</v>
       </c>
       <c r="H187" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I187" t="s">
         <v>45</v>
@@ -6029,22 +6016,22 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G188">
-        <v>5999.0155370000002</v>
+        <v>7750</v>
       </c>
       <c r="H188" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I188" t="s">
         <v>45</v>
       </c>
       <c r="J188" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L188" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -6061,22 +6048,22 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G189">
-        <v>4790.9008819999999</v>
+        <v>5900</v>
       </c>
       <c r="H189" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I189" t="s">
         <v>45</v>
       </c>
       <c r="J189" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L189" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -6093,10 +6080,10 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G190">
-        <v>3791.1229790000002</v>
+        <v>5999.0155370000002</v>
       </c>
       <c r="H190" t="s">
         <v>85</v>
@@ -6125,10 +6112,10 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G191">
-        <v>3249.7782499999998</v>
+        <v>4790.9008819999999</v>
       </c>
       <c r="H191" t="s">
         <v>85</v>
@@ -6157,10 +6144,10 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G192">
-        <v>2590.8153069999998</v>
+        <v>3791.1229790000002</v>
       </c>
       <c r="H192" t="s">
         <v>85</v>
@@ -6189,10 +6176,10 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G193">
-        <v>2072.0770630000002</v>
+        <v>3249.7782499999998</v>
       </c>
       <c r="H193" t="s">
         <v>85</v>
@@ -6221,10 +6208,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G194">
-        <v>1881.1430250000001</v>
+        <v>2590.8153069999998</v>
       </c>
       <c r="H194" t="s">
         <v>85</v>
@@ -6253,10 +6240,10 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G195">
-        <v>1803.9349159999999</v>
+        <v>2072.0770630000002</v>
       </c>
       <c r="H195" t="s">
         <v>85</v>
@@ -6285,10 +6272,10 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G196">
-        <v>1802.2196670000001</v>
+        <v>1881.1430250000001</v>
       </c>
       <c r="H196" t="s">
         <v>85</v>
@@ -6317,10 +6304,10 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G197">
-        <v>1455.218396</v>
+        <v>1803.9349159999999</v>
       </c>
       <c r="H197" t="s">
         <v>85</v>
@@ -6343,16 +6330,28 @@
         <v>43</v>
       </c>
       <c r="C198" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" t="s">
         <v>39</v>
       </c>
       <c r="E198">
-        <v>1990</v>
+        <v>2018</v>
+      </c>
+      <c r="G198">
+        <v>1802.2196670000001</v>
+      </c>
+      <c r="H198" t="s">
+        <v>85</v>
       </c>
       <c r="I198" t="s">
         <v>45</v>
+      </c>
+      <c r="J198" t="s">
+        <v>86</v>
+      </c>
+      <c r="L198" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -6363,16 +6362,28 @@
         <v>43</v>
       </c>
       <c r="C199" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>39</v>
       </c>
       <c r="E199">
-        <v>1991</v>
+        <v>2019</v>
+      </c>
+      <c r="G199">
+        <v>1455.218396</v>
+      </c>
+      <c r="H199" t="s">
+        <v>85</v>
       </c>
       <c r="I199" t="s">
         <v>45</v>
+      </c>
+      <c r="J199" t="s">
+        <v>86</v>
+      </c>
+      <c r="L199" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -6389,7 +6400,7 @@
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="I200" t="s">
         <v>45</v>
@@ -6409,7 +6420,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="I201" t="s">
         <v>45</v>
@@ -6429,7 +6440,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="I202" t="s">
         <v>45</v>
@@ -6449,7 +6460,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="I203" t="s">
         <v>45</v>
@@ -6469,7 +6480,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="I204" t="s">
         <v>45</v>
@@ -6489,7 +6500,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="I205" t="s">
         <v>45</v>
@@ -6509,7 +6520,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="I206" t="s">
         <v>45</v>
@@ -6529,7 +6540,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="I207" t="s">
         <v>45</v>
@@ -6549,7 +6560,7 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="I208" t="s">
         <v>45</v>
@@ -6569,7 +6580,7 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="I209" t="s">
         <v>45</v>
@@ -6589,7 +6600,7 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="I210" t="s">
         <v>45</v>
@@ -6609,7 +6620,7 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="I211" t="s">
         <v>45</v>
@@ -6629,7 +6640,7 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="I212" t="s">
         <v>45</v>
@@ -6649,7 +6660,7 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="I213" t="s">
         <v>45</v>
@@ -6669,7 +6680,7 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="I214" t="s">
         <v>45</v>
@@ -6689,7 +6700,7 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="I215" t="s">
         <v>45</v>
@@ -6709,7 +6720,7 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="I216" t="s">
         <v>45</v>
@@ -6729,7 +6740,7 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="I217" t="s">
         <v>45</v>
@@ -6749,7 +6760,7 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="I218" t="s">
         <v>45</v>
@@ -6769,7 +6780,7 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="I219" t="s">
         <v>45</v>
@@ -6789,7 +6800,7 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I220" t="s">
         <v>45</v>
@@ -6809,7 +6820,7 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="I221" t="s">
         <v>45</v>
@@ -6829,7 +6840,7 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="I222" t="s">
         <v>45</v>
@@ -6849,7 +6860,7 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="I223" t="s">
         <v>45</v>
@@ -6869,7 +6880,7 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="I224" t="s">
         <v>45</v>
@@ -6889,7 +6900,7 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="I225" t="s">
         <v>45</v>
@@ -6909,19 +6920,10 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2018</v>
-      </c>
-      <c r="G226">
-        <v>0</v>
-      </c>
-      <c r="H226" t="s">
-        <v>88</v>
+        <v>2016</v>
       </c>
       <c r="I226" t="s">
         <v>45</v>
-      </c>
-      <c r="J226" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -6938,7 +6940,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="I227" t="s">
         <v>45</v>
@@ -6952,28 +6954,25 @@
         <v>43</v>
       </c>
       <c r="C228" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D228" t="s">
         <v>39</v>
       </c>
       <c r="E228">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G228">
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="I228" t="s">
         <v>45</v>
       </c>
       <c r="J228" t="s">
-        <v>46</v>
-      </c>
-      <c r="L228" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -6984,28 +6983,16 @@
         <v>43</v>
       </c>
       <c r="C229" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D229" t="s">
         <v>39</v>
       </c>
       <c r="E229">
-        <v>1991</v>
-      </c>
-      <c r="G229">
-        <v>0</v>
-      </c>
-      <c r="H229" t="s">
-        <v>47</v>
+        <v>2019</v>
       </c>
       <c r="I229" t="s">
         <v>45</v>
-      </c>
-      <c r="J229" t="s">
-        <v>46</v>
-      </c>
-      <c r="L229" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -7022,7 +7009,7 @@
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G230">
         <v>0</v>
@@ -7054,7 +7041,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -7086,7 +7073,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -7118,7 +7105,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -7150,7 +7137,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -7182,7 +7169,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -7214,7 +7201,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -7246,7 +7233,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -7278,7 +7265,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -7310,7 +7297,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -7342,7 +7329,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -7374,7 +7361,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -7406,7 +7393,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -7438,7 +7425,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -7470,7 +7457,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -7502,7 +7489,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -7534,7 +7521,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -7566,7 +7553,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -7598,7 +7585,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -7630,7 +7617,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -7662,7 +7649,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -7694,7 +7681,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7726,7 +7713,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7758,7 +7745,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7790,7 +7777,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7822,7 +7809,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7854,7 +7841,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7886,7 +7873,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7912,19 +7899,28 @@
         <v>43</v>
       </c>
       <c r="C258" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D258" t="s">
         <v>39</v>
       </c>
       <c r="E258">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G258">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>47</v>
       </c>
       <c r="I258" t="s">
         <v>45</v>
+      </c>
+      <c r="J258" t="s">
+        <v>46</v>
+      </c>
+      <c r="L258" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -7935,19 +7931,28 @@
         <v>43</v>
       </c>
       <c r="C259" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D259" t="s">
         <v>39</v>
       </c>
       <c r="E259">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G259">
-        <v>0.2</v>
+        <v>0</v>
+      </c>
+      <c r="H259" t="s">
+        <v>47</v>
       </c>
       <c r="I259" t="s">
         <v>45</v>
+      </c>
+      <c r="J259" t="s">
+        <v>46</v>
+      </c>
+      <c r="L259" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -7964,10 +7969,10 @@
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G260">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="s">
         <v>45</v>
@@ -7987,7 +7992,7 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G261">
         <v>0.2</v>
@@ -8010,7 +8015,7 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G262">
         <v>0.2</v>
@@ -8033,7 +8038,7 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G263">
         <v>0.2</v>
@@ -8056,7 +8061,7 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G264">
         <v>0.2</v>
@@ -8079,7 +8084,7 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G265">
         <v>0.2</v>
@@ -8102,7 +8107,7 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G266">
         <v>0.2</v>
@@ -8125,7 +8130,7 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G267">
         <v>0.2</v>
@@ -8148,7 +8153,7 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G268">
         <v>0.2</v>
@@ -8171,7 +8176,7 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G269">
         <v>0.2</v>
@@ -8194,7 +8199,7 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G270">
         <v>0.2</v>
@@ -8217,7 +8222,7 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G271">
         <v>0.2</v>
@@ -8240,7 +8245,7 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G272">
         <v>0.2</v>
@@ -8263,7 +8268,7 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G273">
         <v>0.2</v>
@@ -8286,7 +8291,7 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G274">
         <v>0.2</v>
@@ -8309,7 +8314,7 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G275">
         <v>0.2</v>
@@ -8332,7 +8337,7 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G276">
         <v>0.2</v>
@@ -8355,7 +8360,7 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G277">
         <v>0.2</v>
@@ -8378,7 +8383,7 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G278">
         <v>0.2</v>
@@ -8401,7 +8406,7 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G279">
         <v>0.2</v>
@@ -8424,7 +8429,7 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G280">
         <v>0.2</v>
@@ -8447,7 +8452,7 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G281">
         <v>0.2</v>
@@ -8470,7 +8475,7 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G282">
         <v>0.2</v>
@@ -8493,7 +8498,7 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G283">
         <v>0.2</v>
@@ -8516,7 +8521,7 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G284">
         <v>0.2</v>
@@ -8539,7 +8544,7 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G285">
         <v>0.2</v>
@@ -8562,7 +8567,7 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G286">
         <v>0.2</v>
@@ -8585,7 +8590,7 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G287">
         <v>0.2</v>
@@ -8602,16 +8607,16 @@
         <v>43</v>
       </c>
       <c r="C288" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D288" t="s">
         <v>39</v>
       </c>
       <c r="E288">
-        <v>1990</v>
+        <v>2018</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I288" t="s">
         <v>45</v>
@@ -8625,16 +8630,16 @@
         <v>43</v>
       </c>
       <c r="C289" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D289" t="s">
         <v>39</v>
       </c>
       <c r="E289">
-        <v>1991</v>
+        <v>2019</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I289" t="s">
         <v>45</v>
@@ -8654,7 +8659,7 @@
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="G290">
         <v>0</v>
@@ -8677,7 +8682,7 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="G291">
         <v>0</v>
@@ -8700,7 +8705,7 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="G292">
         <v>0</v>
@@ -8723,7 +8728,7 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="G293">
         <v>0</v>
@@ -8746,7 +8751,7 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="G294">
         <v>0</v>
@@ -8769,7 +8774,7 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G295">
         <v>0</v>
@@ -8792,7 +8797,7 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="G296">
         <v>0</v>
@@ -8815,7 +8820,7 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="G297">
         <v>0</v>
@@ -8838,7 +8843,7 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="G298">
         <v>0</v>
@@ -8861,7 +8866,7 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="G299">
         <v>0</v>
@@ -8884,7 +8889,7 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="G300">
         <v>0</v>
@@ -8907,7 +8912,7 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="G301">
         <v>0</v>
@@ -8930,7 +8935,7 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="G302">
         <v>0</v>
@@ -8953,7 +8958,7 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="G303">
         <v>0</v>
@@ -8976,7 +8981,7 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="G304">
         <v>0</v>
@@ -8999,7 +9004,7 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="G305">
         <v>0</v>
@@ -9022,7 +9027,7 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="G306">
         <v>0</v>
@@ -9045,7 +9050,7 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="G307">
         <v>0</v>
@@ -9068,7 +9073,7 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="G308">
         <v>0</v>
@@ -9091,7 +9096,7 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="G309">
         <v>0</v>
@@ -9114,7 +9119,7 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="G310">
         <v>0</v>
@@ -9137,7 +9142,7 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G311">
         <v>0</v>
@@ -9160,7 +9165,7 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G312">
         <v>0</v>
@@ -9183,7 +9188,7 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G313">
         <v>0</v>
@@ -9206,7 +9211,7 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G314">
         <v>0</v>
@@ -9229,7 +9234,7 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G315">
         <v>0</v>
@@ -9252,7 +9257,7 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G316">
         <v>0</v>
@@ -9275,24 +9280,70 @@
         <v>39</v>
       </c>
       <c r="E317">
+        <v>2017</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="I317" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>43</v>
+      </c>
+      <c r="C318" t="s">
+        <v>29</v>
+      </c>
+      <c r="D318" t="s">
+        <v>39</v>
+      </c>
+      <c r="E318">
+        <v>2018</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="I318" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>16</v>
+      </c>
+      <c r="B319" t="s">
+        <v>43</v>
+      </c>
+      <c r="C319" t="s">
+        <v>29</v>
+      </c>
+      <c r="D319" t="s">
+        <v>39</v>
+      </c>
+      <c r="E319">
         <v>2019</v>
       </c>
-      <c r="G317">
-        <v>0</v>
-      </c>
-      <c r="I317" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="430" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K430" s="2"/>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="I319" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K432" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L850" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K14" r:id="rId1" xr:uid="{C47DFCEC-44A8-DC48-A22D-7DA72BEA8100}"/>
-    <hyperlink ref="K15" r:id="rId2" xr:uid="{A69A31E3-C9D8-F248-9A39-97FDA42427E2}"/>
+    <hyperlink ref="K16" r:id="rId1" xr:uid="{C47DFCEC-44A8-DC48-A22D-7DA72BEA8100}"/>
+    <hyperlink ref="K17" r:id="rId2" xr:uid="{A69A31E3-C9D8-F248-9A39-97FDA42427E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo_ivan/conversion/elec/CHE_convelec_pv.xlsx
+++ b/data/zenodo_ivan/conversion/elec/CHE_convelec_pv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4BEC7C-3E7F-1041-A0AB-8D54789267C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE24476-3031-7B40-8D49-207DC0B77968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12320" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="102">
   <si>
     <t>Name:</t>
   </si>
@@ -326,9 +326,6 @@
     <t>capacity_to_activity</t>
   </si>
   <si>
-    <t>GW/TWh</t>
-  </si>
-  <si>
     <t>input</t>
   </si>
   <si>
@@ -336,6 +333,12 @@
   </si>
   <si>
     <t>configuration_fxe</t>
+  </si>
+  <si>
+    <t>PJ/GW</t>
+  </si>
+  <si>
+    <t>Maximum energy production per capacity unit, per year.</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -863,10 +866,10 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -884,10 +887,10 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
         <v>99</v>
-      </c>
-      <c r="D8" t="s">
-        <v>100</v>
       </c>
       <c r="F8" t="s">
         <v>50</v>
@@ -982,10 +985,13 @@
         <v>38</v>
       </c>
       <c r="G12">
-        <v>1E-3</v>
+        <v>31.54</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="L12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
